--- a/teaching/traditional_assets/database/data/canada/canada_insurance_prop_cas.xlsx
+++ b/teaching/traditional_assets/database/data/canada/canada_insurance_prop_cas.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ6"/>
+  <dimension ref="A1:AQ5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,7 +582,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -591,121 +591,121 @@
         </is>
       </c>
       <c r="D2">
-        <v>-0.24</v>
+        <v>-0.10135</v>
       </c>
       <c r="E2">
-        <v>0.1334</v>
+        <v>0.05769999999999999</v>
       </c>
       <c r="G2">
-        <v>0.09553896406906205</v>
+        <v>0.3621467700702485</v>
       </c>
       <c r="H2">
-        <v>0.09553896406906205</v>
+        <v>0.3621467700702485</v>
       </c>
       <c r="I2">
-        <v>0.07856749849750214</v>
+        <v>0.3858389079028066</v>
       </c>
       <c r="J2">
-        <v>0.05761191493936672</v>
+        <v>0.3276139867756158</v>
       </c>
       <c r="K2">
-        <v>576.73</v>
+        <v>726.05</v>
       </c>
       <c r="L2">
-        <v>0.06728068128791415</v>
+        <v>0.07798771187350963</v>
       </c>
       <c r="M2">
-        <v>428</v>
+        <v>385.8</v>
       </c>
       <c r="N2">
-        <v>0.02708226554541025</v>
+        <v>0.02185810925655233</v>
       </c>
       <c r="O2">
-        <v>0.7421150278293135</v>
+        <v>0.5313683630603954</v>
       </c>
       <c r="P2">
-        <v>395.5</v>
+        <v>349</v>
       </c>
       <c r="Q2">
-        <v>0.02502578510095737</v>
+        <v>0.01977314704649239</v>
       </c>
       <c r="R2">
-        <v>0.6857628352955456</v>
+        <v>0.4806831485434888</v>
       </c>
       <c r="S2">
-        <v>32.5</v>
+        <v>36.80000000000001</v>
       </c>
       <c r="T2">
-        <v>0.07593457943925233</v>
+        <v>0.09538621047174704</v>
       </c>
       <c r="U2">
-        <v>445.4</v>
+        <v>732.5</v>
       </c>
       <c r="V2">
-        <v>0.02818327353720965</v>
+        <v>0.04150094616491597</v>
       </c>
       <c r="W2">
-        <v>0.06382189995715543</v>
+        <v>0.1316033880674641</v>
       </c>
       <c r="X2">
-        <v>0.04833502293128852</v>
+        <v>0.04110383326229912</v>
       </c>
       <c r="Y2">
-        <v>0.0154868770258669</v>
+        <v>0.09049955480516501</v>
       </c>
       <c r="Z2">
-        <v>1.276309740903299</v>
+        <v>1.473279498234723</v>
       </c>
       <c r="AA2">
-        <v>0.008892037959906316</v>
+        <v>0.255446318824245</v>
       </c>
       <c r="AB2">
-        <v>0.04465117107212357</v>
+        <v>0.04007305844255434</v>
       </c>
       <c r="AC2">
-        <v>-0.03626383395098509</v>
+        <v>0.2152153955414566</v>
       </c>
       <c r="AD2">
-        <v>2113.855</v>
+        <v>2229.408</v>
       </c>
       <c r="AE2">
-        <v>776.0470143970591</v>
+        <v>310.5346760322558</v>
       </c>
       <c r="AF2">
-        <v>2889.902014397059</v>
+        <v>2539.942676032256</v>
       </c>
       <c r="AG2">
-        <v>2444.502014397059</v>
+        <v>1807.442676032256</v>
       </c>
       <c r="AH2">
-        <v>0.1545931068914045</v>
+        <v>0.1258011256674984</v>
       </c>
       <c r="AI2">
-        <v>0.3111435602530562</v>
+        <v>0.2623706425252567</v>
       </c>
       <c r="AJ2">
-        <v>0.1339585134178398</v>
+        <v>0.09289114339933104</v>
       </c>
       <c r="AK2">
-        <v>0.2764460065506792</v>
+        <v>0.2019885626116808</v>
       </c>
       <c r="AL2">
-        <v>90.858</v>
+        <v>85.02499999999999</v>
       </c>
       <c r="AM2">
-        <v>90.858</v>
+        <v>85.02499999999999</v>
       </c>
       <c r="AN2">
-        <v>2.213305453962916</v>
+        <v>0.5871699584131139</v>
       </c>
       <c r="AO2">
-        <v>7.36625283409276</v>
+        <v>42.49679506027639</v>
       </c>
       <c r="AP2">
-        <v>2.55950840558522</v>
+        <v>0.4760349119227826</v>
       </c>
       <c r="AQ2">
-        <v>7.36625283409276</v>
+        <v>42.49679506027639</v>
       </c>
     </row>
     <row r="3">
@@ -725,121 +725,121 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.0692</v>
+        <v>0.0863</v>
       </c>
       <c r="E3">
-        <v>0.0208</v>
+        <v>0.05769999999999999</v>
       </c>
       <c r="G3">
-        <v>0.09751133645160137</v>
+        <v>0.3684158719048035</v>
       </c>
       <c r="H3">
-        <v>0.09751133645160137</v>
+        <v>0.3684158719048035</v>
       </c>
       <c r="I3">
-        <v>0.08145179408916838</v>
+        <v>0.3902236705741479</v>
       </c>
       <c r="J3">
-        <v>0.07096667269546228</v>
+        <v>0.3167298322852374</v>
       </c>
       <c r="K3">
-        <v>572.6</v>
+        <v>708.5</v>
       </c>
       <c r="L3">
-        <v>0.06814962925935183</v>
+        <v>0.07748928165193805</v>
       </c>
       <c r="M3">
-        <v>348.2</v>
+        <v>385.8</v>
       </c>
       <c r="N3">
-        <v>0.02256072671197818</v>
+        <v>0.02280546196134066</v>
       </c>
       <c r="O3">
-        <v>0.6081033880544883</v>
+        <v>0.5445306986591391</v>
       </c>
       <c r="P3">
-        <v>315.7</v>
+        <v>349</v>
       </c>
       <c r="Q3">
-        <v>0.02045497249561031</v>
+        <v>0.0206301353667908</v>
       </c>
       <c r="R3">
-        <v>0.5513447432762836</v>
+        <v>0.492589978828511</v>
       </c>
       <c r="S3">
-        <v>32.5</v>
+        <v>36.80000000000001</v>
       </c>
       <c r="T3">
-        <v>0.09333716255025848</v>
+        <v>0.09538621047174704</v>
       </c>
       <c r="U3">
-        <v>259.1</v>
+        <v>628.2</v>
       </c>
       <c r="V3">
-        <v>0.01678772053725889</v>
+        <v>0.03713424366022345</v>
       </c>
       <c r="W3">
-        <v>0.1079298060430136</v>
+        <v>0.1316033880674641</v>
       </c>
       <c r="X3">
-        <v>0.04857464287938799</v>
+        <v>0.04357350439231643</v>
       </c>
       <c r="Y3">
-        <v>0.0593551631636256</v>
+        <v>0.0880298836751477</v>
       </c>
       <c r="Z3">
-        <v>1.310132240419714</v>
+        <v>1.466611456760101</v>
       </c>
       <c r="AA3">
-        <v>0.09297572589363857</v>
+        <v>0.4645196007272345</v>
       </c>
       <c r="AB3">
-        <v>0.04454184771105894</v>
+        <v>0.03976553175257089</v>
       </c>
       <c r="AC3">
-        <v>0.04843387818257963</v>
+        <v>0.4247540689746636</v>
       </c>
       <c r="AD3">
-        <v>1848.4</v>
+        <v>2200.6</v>
       </c>
       <c r="AE3">
-        <v>765.1694044169922</v>
+        <v>310.5346760322558</v>
       </c>
       <c r="AF3">
-        <v>2613.569404416992</v>
+        <v>2511.134676032256</v>
       </c>
       <c r="AG3">
-        <v>2354.469404416992</v>
+        <v>1882.934676032256</v>
       </c>
       <c r="AH3">
-        <v>0.1448163920298621</v>
+        <v>0.1292524844976572</v>
       </c>
       <c r="AI3">
-        <v>0.2978878373398961</v>
+        <v>0.2663617544060958</v>
       </c>
       <c r="AJ3">
-        <v>0.1323600466624197</v>
+        <v>0.1001564478004692</v>
       </c>
       <c r="AK3">
-        <v>0.2765224279216745</v>
+        <v>0.2139860279619797</v>
       </c>
       <c r="AL3">
-        <v>83.8</v>
+        <v>84.09999999999999</v>
       </c>
       <c r="AM3">
-        <v>83.8</v>
+        <v>84.09999999999999</v>
       </c>
       <c r="AN3">
-        <v>1.919817199833818</v>
+        <v>0.5835277895630038</v>
       </c>
       <c r="AO3">
-        <v>8.121718377088307</v>
+        <v>42.67657550535078</v>
       </c>
       <c r="AP3">
-        <v>2.445439763623798</v>
+        <v>0.4992932424777937</v>
       </c>
       <c r="AQ3">
-        <v>8.121718377088307</v>
+        <v>42.67657550535078</v>
       </c>
     </row>
     <row r="4">
@@ -850,7 +850,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Trisura Group Ltd. (TSX:TSU)</t>
+          <t>EFH Holdings Inc. (TSXV:EFH)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -858,23 +858,26 @@
           <t>Insurance (Prop/Cas.)</t>
         </is>
       </c>
+      <c r="D4">
+        <v>-0.289</v>
+      </c>
       <c r="G4">
-        <v>0.1169474727452924</v>
+        <v>-0.01664473684210526</v>
       </c>
       <c r="H4">
-        <v>0.1169474727452924</v>
+        <v>-0.01664473684210526</v>
       </c>
       <c r="I4">
-        <v>0.008019889988578086</v>
+        <v>0.124671052631579</v>
       </c>
       <c r="J4">
-        <v>0.004009944994289043</v>
+        <v>0.1130602045980336</v>
       </c>
       <c r="K4">
-        <v>1.93</v>
+        <v>-1.75</v>
       </c>
       <c r="L4">
-        <v>0.01912784935579782</v>
+        <v>-0.05756578947368422</v>
       </c>
       <c r="M4">
         <v>-0</v>
@@ -883,7 +886,7 @@
         <v>-0</v>
       </c>
       <c r="O4">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P4">
         <v>-0</v>
@@ -892,79 +895,73 @@
         <v>-0</v>
       </c>
       <c r="R4">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
       <c r="U4">
-        <v>99.59999999999999</v>
+        <v>10.6</v>
       </c>
       <c r="V4">
-        <v>0.3643013899049012</v>
+        <v>0.6883116883116883</v>
       </c>
       <c r="W4">
-        <v>0.01971399387129724</v>
+        <v>-0.0258493353028065</v>
       </c>
       <c r="X4">
-        <v>0.0475588903097386</v>
+        <v>0.04065628174844418</v>
       </c>
       <c r="Y4">
-        <v>-0.02784489643844136</v>
+        <v>-0.06650561705125069</v>
       </c>
       <c r="Z4">
-        <v>2.185214089925504</v>
+        <v>2.259383128948344</v>
       </c>
       <c r="AA4">
-        <v>0.008762588301346661</v>
+        <v>0.255446318824245</v>
       </c>
       <c r="AB4">
-        <v>0.04476049443318821</v>
+        <v>0.04023092328278841</v>
       </c>
       <c r="AC4">
-        <v>-0.03599790613184155</v>
+        <v>0.2152153955414566</v>
       </c>
       <c r="AD4">
-        <v>28.4</v>
+        <v>0.308</v>
       </c>
       <c r="AE4">
-        <v>3.433965500762355</v>
+        <v>0</v>
       </c>
       <c r="AF4">
-        <v>31.83396550076235</v>
+        <v>0.308</v>
       </c>
       <c r="AG4">
-        <v>-67.76603449923763</v>
+        <v>-10.292</v>
       </c>
       <c r="AH4">
-        <v>0.1042936537175213</v>
+        <v>0.0196078431372549</v>
       </c>
       <c r="AI4">
-        <v>0.1824986630864803</v>
+        <v>0.01749204906860518</v>
       </c>
       <c r="AJ4">
-        <v>-0.3295468933559345</v>
+        <v>-2.014878621769773</v>
       </c>
       <c r="AK4">
-        <v>-0.9055518312543156</v>
+        <v>-1.468607305936073</v>
       </c>
       <c r="AL4">
-        <v>0.968</v>
+        <v>0</v>
       </c>
       <c r="AM4">
-        <v>0.968</v>
+        <v>0</v>
       </c>
       <c r="AN4">
-        <v>11.89777963971512</v>
-      </c>
-      <c r="AO4">
-        <v>0.5464876033057852</v>
+        <v>0.07758186397984886</v>
       </c>
       <c r="AP4">
-        <v>-28.38962484257965</v>
-      </c>
-      <c r="AQ4">
-        <v>0.5464876033057852</v>
+        <v>-2.592443324937027</v>
       </c>
     </row>
     <row r="5">
@@ -975,7 +972,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Echelon Financial Holdings Inc. (TSX:EFH)</t>
+          <t>Trisura Group Ltd. (TSX:TSU)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -983,244 +980,113 @@
           <t>Insurance (Prop/Cas.)</t>
         </is>
       </c>
-      <c r="D5">
-        <v>-0.346</v>
-      </c>
-      <c r="E5">
-        <v>0.246</v>
-      </c>
       <c r="G5">
-        <v>-0.08858267716535434</v>
+        <v>0.02584434654919237</v>
       </c>
       <c r="H5">
-        <v>-0.08858267716535434</v>
+        <v>0.02584434654919237</v>
       </c>
       <c r="I5">
-        <v>0.04351461039917606</v>
+        <v>0.1497797356828194</v>
       </c>
       <c r="J5">
-        <v>0.02444846035006118</v>
+        <v>0.1241307594864911</v>
       </c>
       <c r="K5">
-        <v>28.8</v>
+        <v>19.3</v>
       </c>
       <c r="L5">
-        <v>1.133858267716535</v>
+        <v>0.1417033773861968</v>
       </c>
       <c r="M5">
-        <v>79.8</v>
+        <v>-0</v>
       </c>
       <c r="N5">
-        <v>1.44043321299639</v>
+        <v>-0</v>
       </c>
       <c r="O5">
-        <v>2.770833333333333</v>
+        <v>-0</v>
       </c>
       <c r="P5">
-        <v>79.8</v>
+        <v>-0</v>
       </c>
       <c r="Q5">
-        <v>1.44043321299639</v>
+        <v>-0</v>
       </c>
       <c r="R5">
-        <v>2.770833333333333</v>
+        <v>-0</v>
       </c>
       <c r="S5">
         <v>0</v>
       </c>
-      <c r="T5">
+      <c r="U5">
+        <v>93.7</v>
+      </c>
+      <c r="V5">
+        <v>0.1305377542490945</v>
+      </c>
+      <c r="W5">
+        <v>0.1364922206506365</v>
+      </c>
+      <c r="X5">
+        <v>0.04110383326229912</v>
+      </c>
+      <c r="Y5">
+        <v>0.09538838738833737</v>
+      </c>
+      <c r="Z5">
+        <v>1.907295896933202</v>
+      </c>
+      <c r="AA5">
+        <v>0.2367540882517866</v>
+      </c>
+      <c r="AB5">
+        <v>0.04007305844255434</v>
+      </c>
+      <c r="AC5">
+        <v>0.1966810298092322</v>
+      </c>
+      <c r="AD5">
+        <v>28.5</v>
+      </c>
+      <c r="AE5">
         <v>0</v>
       </c>
-      <c r="U5">
-        <v>54.8</v>
-      </c>
-      <c r="V5">
-        <v>0.9891696750902527</v>
-      </c>
-      <c r="W5">
-        <v>0.2422203532380151</v>
-      </c>
-      <c r="X5">
-        <v>0.04809540298318906</v>
-      </c>
-      <c r="Y5">
-        <v>0.1941249502548261</v>
-      </c>
-      <c r="Z5">
-        <v>0.3690002351597325</v>
-      </c>
-      <c r="AA5">
-        <v>0.009021487618465973</v>
-      </c>
-      <c r="AB5">
-        <v>0.0455512493885946</v>
-      </c>
-      <c r="AC5">
-        <v>-0.03652976177012863</v>
-      </c>
-      <c r="AD5">
-        <v>0.555</v>
-      </c>
-      <c r="AE5">
-        <v>7.443644479304641</v>
-      </c>
       <c r="AF5">
-        <v>7.998644479304641</v>
+        <v>28.5</v>
       </c>
       <c r="AG5">
-        <v>-46.80135552069535</v>
+        <v>-65.2</v>
       </c>
       <c r="AH5">
-        <v>0.1261642822965348</v>
+        <v>0.03818839608736433</v>
       </c>
       <c r="AI5">
-        <v>0.1017656797047018</v>
+        <v>0.1209677419354839</v>
       </c>
       <c r="AJ5">
-        <v>-5.442875982759562</v>
+        <v>-0.09990806006742263</v>
       </c>
       <c r="AK5">
-        <v>-1.966555513756001</v>
+        <v>-0.459478505990134</v>
       </c>
       <c r="AL5">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AM5">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AN5">
-        <v>-2.413043478260868</v>
+        <v>1.313364055299539</v>
+      </c>
+      <c r="AO5">
+        <v>22.05405405405405</v>
       </c>
       <c r="AP5">
-        <v>203.4841544378057</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Canada</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Kingsway Financial Services Inc. (NYSE:KFS)</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Insurance (Prop/Cas.)</t>
-        </is>
-      </c>
-      <c r="D6">
-        <v>-0.24</v>
-      </c>
-      <c r="G6">
-        <v>-0.2268348623853211</v>
-      </c>
-      <c r="H6">
-        <v>-0.2268348623853211</v>
-      </c>
-      <c r="I6">
-        <v>-0.2935779816513762</v>
-      </c>
-      <c r="J6">
-        <v>-0.2935779816513762</v>
-      </c>
-      <c r="K6">
-        <v>-26.6</v>
-      </c>
-      <c r="L6">
-        <v>-0.6100917431192661</v>
-      </c>
-      <c r="M6">
-        <v>-0</v>
-      </c>
-      <c r="N6">
-        <v>-0</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="P6">
-        <v>-0</v>
-      </c>
-      <c r="Q6">
-        <v>-0</v>
-      </c>
-      <c r="R6">
-        <v>0</v>
-      </c>
-      <c r="S6">
-        <v>0</v>
-      </c>
-      <c r="U6">
-        <v>31.9</v>
-      </c>
-      <c r="V6">
-        <v>0.7780487804878048</v>
-      </c>
-      <c r="W6">
-        <v>-0.6873385012919897</v>
-      </c>
-      <c r="X6">
-        <v>0.1560777452081729</v>
-      </c>
-      <c r="Y6">
-        <v>-0.8434162465001627</v>
-      </c>
-      <c r="Z6">
-        <v>0.2318409018398384</v>
-      </c>
-      <c r="AA6">
-        <v>-0.06806338402637457</v>
-      </c>
-      <c r="AB6">
-        <v>0.04448320019291924</v>
-      </c>
-      <c r="AC6">
-        <v>-0.1125465842192938</v>
-      </c>
-      <c r="AD6">
-        <v>236.5</v>
-      </c>
-      <c r="AE6">
-        <v>0</v>
-      </c>
-      <c r="AF6">
-        <v>236.5</v>
-      </c>
-      <c r="AG6">
-        <v>204.6</v>
-      </c>
-      <c r="AH6">
-        <v>0.8522522522522522</v>
-      </c>
-      <c r="AI6">
-        <v>0.9050899349406811</v>
-      </c>
-      <c r="AJ6">
-        <v>0.8330618892508144</v>
-      </c>
-      <c r="AK6">
-        <v>0.8918918918918919</v>
-      </c>
-      <c r="AL6">
-        <v>6.09</v>
-      </c>
-      <c r="AM6">
-        <v>6.09</v>
-      </c>
-      <c r="AN6">
-        <v>-23.91304347826087</v>
-      </c>
-      <c r="AO6">
-        <v>-2.101806239737274</v>
-      </c>
-      <c r="AP6">
-        <v>-20.68756319514661</v>
-      </c>
-      <c r="AQ6">
-        <v>-2.101806239737274</v>
+        <v>-3.004608294930876</v>
+      </c>
+      <c r="AQ5">
+        <v>22.05405405405405</v>
       </c>
     </row>
   </sheetData>
